--- a/论文学习.xlsx
+++ b/论文学习.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DengBin\Desktop\大语言模型\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengbin/Desktop/MLLM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5D069A-21FE-4B8E-91EF-B1FB033842EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0E2E36-C5F8-8D41-A7D0-AEB77B7FDFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19260" yWindow="660" windowWidth="18980" windowHeight="19100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="对抗攻击" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <r>
       <rPr>
@@ -1889,24 +1889,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="1"/>
-      </rPr>
-      <t>①</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法是最大化输出指定</t>
+    <t>代码链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ebagdasa/multimodal_injection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are Aligned Neural Networks Adversarially Aligned?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/thu-ml/Attack-Bard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How Robust is Google’s Bard to Adversarial Image Attacks?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Evaluating Adversarial Robustness of VLMs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/yunqing-me/AttackVLM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On the Adversarial Robustness of Multi-Modal Foundation Models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①方法：最大化输出指定</t>
     </r>
     <r>
       <rPr>
@@ -1922,29 +1949,10 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>串的概率，然后反向传播梯度优化整张或者局部图像。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="1"/>
-      </rPr>
-      <t>②</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实验是基于</t>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串的概率，然后反向传播梯度优化整张或者局部图像。②实验：基于</t>
     </r>
     <r>
       <rPr>
@@ -1960,7 +1968,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="1"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和</t>
@@ -1979,7 +1987,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="1"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实现的例子展示。</t>
@@ -1991,58 +1999,848 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="1"/>
-      </rPr>
-      <t>①</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法总体比较简单，可以考虑将图像对抗攻击迁移方法迁移过来。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/ebagdasa/multimodal_injection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Are Aligned Neural Networks Adversarially Aligned?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="1"/>
-      </rPr>
-      <t>①</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法是最大化输出前缀是</t>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①方法：图像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图像相似（用扩散模型将目标文本转成图像，然后拉进原图像和生成图像）、基于访问（使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>random gradient-free</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法计算伪梯度从而实现黑盒攻击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）②数据集：使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ImageNet-1K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的图像作为原始图像，使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MS-COCO captions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作为目标文本。③衡量标准：用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CLIP score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>衡量图像描述的准确性。④模型：图像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图像相似攻击中用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>stable difussion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作为将文本转为图像的模型，代理模型包括</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BLIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CLIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BLIP-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ALBEF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；黑盒模型包括</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>UniDiffuser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Img2Prompt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LLaVA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MiniGPT-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:untargeted attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（最小化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ground truth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文本的概率）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>targeted attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（最大化目标文本的概率）；②数据集和评测标准：在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>image captioning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>任务上使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>COCO 2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Flickr30k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据集基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CIDEr score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评测、在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>visual QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>任务上使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>OK-VQA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VizWiz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据集基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VQA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正确率评测、针对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>targeted attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>COCO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用成功率和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BLEU-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评测；④模型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>OpenFlamingo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①方法：图像嵌入攻击：使图像的嵌入尽可能偏离原图像嵌入从而让模型输出变化；图像描述攻击：最大化输出指定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串的概率。（黑盒攻击使用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SSA-CWA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）②数据集：在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NIPS17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据集中随机采样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张图像。③模型：图像嵌入攻击使用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ViT-B/16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CLIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BLIP-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vision encoder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；图像描述攻击使用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BLIP-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>InstructBLIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MiniGPT-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。④评测标准：检验模型输出内容与图像是否一致。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①方法：最大化输出前缀是</t>
     </r>
     <r>
       <rPr>
@@ -2058,29 +2856,10 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的概率，然后反向传播梯度优化图像。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="1"/>
-      </rPr>
-      <t>②</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实验是基于</t>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的概率，然后反向传播梯度优化图像。②实验：基于</t>
     </r>
     <r>
       <rPr>
@@ -2096,7 +2875,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="1"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -2115,7 +2894,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="1"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和</t>
@@ -2134,7 +2913,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="1"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>验证的，检验输出内容是否包含有害</t>
@@ -2153,636 +2932,10 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="1"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/thu-ml/Attack-Bard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="1"/>
-      </rPr>
-      <t>①</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图像嵌入攻击：使图像的嵌入尽可能偏离原图像嵌入从而让模型输出变化；图像描述攻击：最大化输出指定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>串的概率。（黑盒攻击使用了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SSA-CWA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="1"/>
-      </rPr>
-      <t>②</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>NIPS17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据集中随机采样100张图像。图像嵌入攻击使用了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ViT-B/16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CLIP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BLIP-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>vision encoder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；图像描述攻击使用了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BLIP-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>InstructBLIP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MiniGPT-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。检验模型输出内容与图像是否一致。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>How Robust is Google’s Bard to Adversarial Image Attacks?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>On Evaluating Adversarial Robustness of VLMs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>①</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法：图像</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图像相似（用扩散模型将目标文本转成图像，然后拉进原图像和生成图像）、基于访问（使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>random gradient-free</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法计算伪梯度从而实现黑盒攻击</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>②</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据集：使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ImageNet-1K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的图像作为原始图像，使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MS-COCO captions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>作为目标文本。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>③</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>衡量标准：用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CLIP score</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>衡量图像描述的准确性。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>④</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模型：图像</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图像相似攻击中用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>stable difussion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>作为将文本转为图像的模型，代理模型包括</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BLIP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CLIP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BLIP-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ALBEF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；黑盒模型包括</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>UniDiffuser</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Img2Prompt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LLaVA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MiniGPT-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2791,7 +2944,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2871,12 +3024,7 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2959,7 +3107,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3248,15 +3396,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="120.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="70.77734375" customWidth="1"/>
-    <col min="4" max="4" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="120.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="70.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3273,7 +3421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="60" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -3286,7 +3434,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="60" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -3297,7 +3445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="60" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -3310,7 +3458,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="60" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -3323,7 +3471,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="60" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -3336,7 +3484,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="60" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -3349,7 +3497,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="60" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -3376,15 +3524,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="120.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="70.77734375" customWidth="1"/>
-    <col min="4" max="4" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="120.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="70.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="19">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3399,7 +3547,7 @@
       </c>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="60" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
@@ -3412,7 +3560,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="60" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>24</v>
       </c>
@@ -3425,7 +3573,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="60" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
@@ -3453,15 +3601,15 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="120.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="70.77734375" customWidth="1"/>
-    <col min="4" max="4" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="120.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="70.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="19">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3476,7 +3624,7 @@
       </c>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="60" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>39</v>
       </c>
@@ -3489,7 +3637,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="60" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -3502,7 +3650,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="60" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>41</v>
       </c>
@@ -3517,7 +3665,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="60" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
@@ -3532,7 +3680,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="60" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>32</v>
       </c>
@@ -3547,7 +3695,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="60" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>34</v>
       </c>
@@ -3562,7 +3710,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="60" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
@@ -3575,7 +3723,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="60" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>56</v>
       </c>
@@ -3598,20 +3746,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B897D0E8-9FF3-4F5D-9279-EF7F7091E824}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="120.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="5" width="70.77734375" customWidth="1"/>
+    <col min="1" max="1" width="120.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="4" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3622,77 +3770,86 @@
         <v>1</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="60" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="10">
         <v>2023</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="60" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="10">
         <v>2023</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" customHeight="1">
+      <c r="A4" s="13" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="B4" s="10">
         <v>2023</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="20" t="s">
-        <v>68</v>
+      <c r="C4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="60" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B5" s="10">
         <v>2023</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="20"/>
+      <c r="D6" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{9BDE710B-6D4D-4CAA-9506-3267E1354ED2}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{1A34FAF0-967C-41BF-B16A-6AA251EEB9B2}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{7E1D38F6-778F-A249-8281-E94505A43879}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{093869B5-EFAE-1D49-AAB3-5617BD2935BD}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{696F72AE-40A7-6247-990F-8851938050BE}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{4801AE34-9CA6-6D48-9C85-E173F558C788}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3706,15 +3863,15 @@
       <selection activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="120.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="70.77734375" customWidth="1"/>
-    <col min="4" max="4" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="120.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="70.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="19">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3729,7 +3886,7 @@
       </c>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="60" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>42</v>
       </c>
@@ -3742,7 +3899,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="60" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>43</v>
       </c>
@@ -3769,15 +3926,15 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="120.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="70.77734375" customWidth="1"/>
-    <col min="4" max="4" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="120.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="70.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="19">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3792,7 +3949,7 @@
       </c>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="60" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>52</v>
       </c>
@@ -3805,7 +3962,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="60" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>

--- a/论文学习.xlsx
+++ b/论文学习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengbin/Desktop/MLLM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0E2E36-C5F8-8D41-A7D0-AEB77B7FDFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E929A9-AA8A-074D-BA43-406CFCE5F512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19260" yWindow="660" windowWidth="18980" windowHeight="19100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
   <si>
     <r>
       <rPr>
@@ -2938,6 +2938,9 @@
       <t>。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/chs20/robustvlm</t>
   </si>
 </sst>
 </file>
@@ -3749,7 +3752,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3840,7 +3843,7 @@
         <v>72</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3849,7 +3852,6 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{7E1D38F6-778F-A249-8281-E94505A43879}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{093869B5-EFAE-1D49-AAB3-5617BD2935BD}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{696F72AE-40A7-6247-990F-8851938050BE}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{4801AE34-9CA6-6D48-9C85-E173F558C788}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/论文学习.xlsx
+++ b/论文学习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengbin/Desktop/MLLM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E929A9-AA8A-074D-BA43-406CFCE5F512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BAB487-061E-814F-9371-F97BBB277D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19260" yWindow="660" windowWidth="18980" windowHeight="19100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
   <si>
     <r>
       <rPr>
@@ -2320,6 +2320,346 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>①方法：图像嵌入攻击：使图像的嵌入尽可能偏离原图像嵌入从而让模型输出变化；图像描述攻击：最大化输出指定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串的概率。（黑盒攻击使用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SSA-CWA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）②数据集：在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NIPS17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据集中随机采样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张图像。③模型：图像嵌入攻击使用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ViT-B/16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CLIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BLIP-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vision encoder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；图像描述攻击使用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BLIP-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>InstructBLIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MiniGPT-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。④评测标准：检验模型输出内容与图像是否一致。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①方法：最大化输出前缀是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>toxic token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的概率，然后反向传播梯度优化图像。②实验：基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GPT-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LLaVa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LLaVa Adapter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证的，检验输出内容是否包含有害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/chs20/robustvlm</t>
+  </si>
+  <si>
+    <t>An Image is Worth 1000 Lies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Haochen-Luo/CroPA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>①方法</t>
     </r>
     <r>
@@ -2586,7 +2926,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>评测；④模型：</t>
+      <t>评测；③模型：</t>
     </r>
     <r>
       <rPr>
@@ -2618,99 +2958,90 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>①方法：图像嵌入攻击：使图像的嵌入尽可能偏离原图像嵌入从而让模型输出变化；图像描述攻击：最大化输出指定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>串的概率。（黑盒攻击使用了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SSA-CWA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）②数据集：在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>NIPS17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据集中随机采样</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张图像。③模型：图像嵌入攻击使用了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ViT-B/16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+      <t>①方法：提高图像在不同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>prompt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的迁移攻击能力（梯度优化图像最大化输出指定文本的概率，梯度优化文本最小化输出指定文本的概率）；②数据集：图像来自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MS-COCO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，文本来自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VQA-v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（图像内容相关）和自己构造（图像内容无关）；③模型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>OpenFlamingo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -2722,71 +3053,14 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>CLIP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>BLIP-2</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>vision encoder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；图像描述攻击使用了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BLIP-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -2808,146 +3082,35 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MiniGPT-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。④评测标准：检验模型输出内容与图像是否一致。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>①方法：最大化输出前缀是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>toxic token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的概率，然后反向传播梯度优化图像。②实验：基于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>GPT-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LLaVa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LLaVa Adapter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>验证的，检验输出内容是否包含有害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/chs20/robustvlm</t>
+      <t>；④评测标准：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>attack success rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3027,6 +3190,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="1"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3749,10 +3919,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B897D0E8-9FF3-4F5D-9279-EF7F7091E824}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3798,7 +3968,7 @@
         <v>2023</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>64</v>
@@ -3812,7 +3982,7 @@
         <v>2023</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>65</v>
@@ -3840,10 +4010,24 @@
         <v>2023</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D6" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60" customHeight="1">
+      <c r="A7" s="13" t="s">
         <v>75</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/论文学习.xlsx
+++ b/论文学习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengbin/Desktop/MLLM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BAB487-061E-814F-9371-F97BBB277D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8258B097-1592-B043-89FA-D9D1BA9F154B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19260" yWindow="660" windowWidth="18980" windowHeight="19100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
   <si>
     <r>
       <rPr>
@@ -3104,6 +3104,311 @@
       <t>；</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Hijacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①方法：通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Behaviour Matching</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>specific string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>leak context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>jailbreak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>disinformation attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的输出文本；方法仍然是最大化输出指定文本的概率；②数据集：总体没有提及图像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文本；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>specific string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Alpaca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构建；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>jailbreak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AdvBench</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构建；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Baseline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GCG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；③模型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LLaVA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>InstructBLIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BLIP-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/euanong/image-hijacks/tree/master</t>
   </si>
 </sst>
 </file>
@@ -3919,10 +4224,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B897D0E8-9FF3-4F5D-9279-EF7F7091E824}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4028,6 +4333,20 @@
       </c>
       <c r="D7" s="20" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" customHeight="1">
+      <c r="A8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/论文学习.xlsx
+++ b/论文学习.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengbin/Desktop/MLLM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8258B097-1592-B043-89FA-D9D1BA9F154B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9DA642-72F2-4447-8848-1869C6058B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19260" yWindow="660" windowWidth="18980" windowHeight="19100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19280" yWindow="660" windowWidth="18980" windowHeight="19100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="对抗攻击" sheetId="2" r:id="rId1"/>
     <sheet name="LLM Model" sheetId="5" r:id="rId2"/>
-    <sheet name="LLM Safety" sheetId="4" r:id="rId3"/>
-    <sheet name="MLLM Safety" sheetId="9" r:id="rId4"/>
-    <sheet name="LLM Mixed-Types Dialogs" sheetId="6" r:id="rId5"/>
-    <sheet name="LLM Function Call" sheetId="7" r:id="rId6"/>
+    <sheet name="LLM+KG" sheetId="10" r:id="rId3"/>
+    <sheet name="LLM Function Call" sheetId="7" r:id="rId4"/>
+    <sheet name="LLM Safety" sheetId="4" r:id="rId5"/>
+    <sheet name="LLM Mixed-Types Dialogs" sheetId="6" r:id="rId6"/>
+    <sheet name="MLLM Safety" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
   <si>
     <r>
       <rPr>
@@ -3409,6 +3410,330 @@
   </si>
   <si>
     <t>https://github.com/euanong/image-hijacks/tree/master</t>
+  </si>
+  <si>
+    <t>Think on Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/IDEA-FinAI/ToG/tree/main</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①方法：让大模型在知识图谱沿关系进行搜索，包括两段式的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>prune</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。②数据集：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CWQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>WebQSP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GrailQA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>QALD10-en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Simple Questions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>WebQuestions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T-Rex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Zero-Shot RE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Creak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；③模型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ChatGPT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GPT-3.5-turbo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GPT-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GPT-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Llama-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4072,6 +4397,118 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543A151D-DD2D-9D4C-BC71-A819B18BA47F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="120.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="4" width="70.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012B074A-4264-42D9-9101-EA7B3D406FB0}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="120.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="70.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="60" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="60" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8ED0333-7086-4CC9-A62D-6DD2D976096B}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -4222,145 +4659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B897D0E8-9FF3-4F5D-9279-EF7F7091E824}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="120.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="4" width="70.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="19">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="60" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="10">
-        <v>2023</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="60" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="10">
-        <v>2023</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="10">
-        <v>2023</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" customHeight="1">
-      <c r="A5" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="10">
-        <v>2023</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" customHeight="1">
-      <c r="A6" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="10">
-        <v>2023</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1">
-      <c r="A8" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{7E1D38F6-778F-A249-8281-E94505A43879}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{093869B5-EFAE-1D49-AAB3-5617BD2935BD}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{696F72AE-40A7-6247-990F-8851938050BE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1AC239-311F-436F-B819-5C8F8652A744}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -4423,23 +4722,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012B074A-4264-42D9-9101-EA7B3D406FB0}">
-  <dimension ref="A1:E3"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B897D0E8-9FF3-4F5D-9279-EF7F7091E824}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="B1" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="120.83203125" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="70.83203125" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+    <col min="3" max="4" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19">
+    <row r="1" spans="1:4" ht="19">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4450,38 +4748,114 @@
         <v>1</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="11"/>
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="60" customHeight="1">
+    <row r="2" spans="1:4" ht="60" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B2" s="10">
         <v>2023</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="60" customHeight="1">
+    <row r="3" spans="1:4" ht="60" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B3" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="10">
         <v>2024</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C7" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" customHeight="1">
+      <c r="A8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{7E1D38F6-778F-A249-8281-E94505A43879}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{093869B5-EFAE-1D49-AAB3-5617BD2935BD}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{696F72AE-40A7-6247-990F-8851938050BE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/论文学习.xlsx
+++ b/论文学习.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengbin/Desktop/MLLM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DengBin\Desktop\LLM Paper Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9DA642-72F2-4447-8848-1869C6058B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9600BEBB-4EBA-4B63-8E0A-EBB7A1B4F308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19280" yWindow="660" windowWidth="18980" windowHeight="19100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="对抗攻击" sheetId="2" r:id="rId1"/>
     <sheet name="LLM Model" sheetId="5" r:id="rId2"/>
-    <sheet name="LLM+KG" sheetId="10" r:id="rId3"/>
+    <sheet name="KG+" sheetId="10" r:id="rId3"/>
     <sheet name="LLM Function Call" sheetId="7" r:id="rId4"/>
     <sheet name="LLM Safety" sheetId="4" r:id="rId5"/>
     <sheet name="LLM Mixed-Types Dialogs" sheetId="6" r:id="rId6"/>
@@ -4199,15 +4199,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="120.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="70.83203125" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="120.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="70.77734375" customWidth="1"/>
+    <col min="4" max="4" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19">
+    <row r="1" spans="1:5" ht="18.600000000000001">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4327,15 +4327,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="120.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="70.83203125" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="120.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="70.77734375" customWidth="1"/>
+    <col min="4" max="4" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19">
+    <row r="1" spans="1:5" ht="18.600000000000001">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4400,18 +4400,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543A151D-DD2D-9D4C-BC71-A819B18BA47F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="120.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="4" width="70.83203125" customWidth="1"/>
+    <col min="1" max="1" width="120.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="4" width="70.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4453,15 +4453,15 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="120.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="70.83203125" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="120.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="70.77734375" customWidth="1"/>
+    <col min="4" max="4" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19">
+    <row r="1" spans="1:5" ht="18.600000000000001">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4516,15 +4516,15 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="120.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="70.83203125" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="120.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="70.77734375" customWidth="1"/>
+    <col min="4" max="4" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19">
+    <row r="1" spans="1:5" ht="18.600000000000001">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4667,15 +4667,15 @@
       <selection activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="120.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="70.83203125" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="120.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="70.77734375" customWidth="1"/>
+    <col min="4" max="4" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19">
+    <row r="1" spans="1:5" ht="18.600000000000001">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4730,14 +4730,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="120.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="4" width="70.83203125" customWidth="1"/>
+    <col min="1" max="1" width="120.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="4" width="70.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>

--- a/论文学习.xlsx
+++ b/论文学习.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DengBin\Desktop\LLM Paper Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengbin/Desktop/LLM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9600BEBB-4EBA-4B63-8E0A-EBB7A1B4F308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42000CC5-6454-E74C-9CA9-F0969D11FDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19300" yWindow="660" windowWidth="18960" windowHeight="19080" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="对抗攻击" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
   <si>
     <r>
       <rPr>
@@ -2004,6 +2004,1768 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>①方法：图像嵌入攻击：使图像的嵌入尽可能偏离原图像嵌入从而让模型输出变化；图像描述攻击：最大化输出指定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串的概率。（黑盒攻击使用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SSA-CWA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）②数据集：在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NIPS17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据集中随机采样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张图像。③模型：图像嵌入攻击使用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ViT-B/16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CLIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BLIP-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vision encoder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；图像描述攻击使用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BLIP-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>InstructBLIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MiniGPT-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。④评测标准：检验模型输出内容与图像是否一致。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①方法：最大化输出前缀是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>toxic token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的概率，然后反向传播梯度优化图像。②实验：基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GPT-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LLaVa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LLaVa Adapter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证的，检验输出内容是否包含有害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/chs20/robustvlm</t>
+  </si>
+  <si>
+    <t>An Image is Worth 1000 Lies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Haochen-Luo/CroPA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:untargeted attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（最小化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ground truth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文本的概率）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>targeted attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（最大化目标文本的概率）；②数据集和评测标准：在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>image captioning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>任务上使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>COCO 2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Flickr30k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据集基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CIDEr score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评测、在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>visual QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>任务上使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>OK-VQA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VizWiz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据集基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VQA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正确率评测、针对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>targeted attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>COCO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用成功率和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BLEU-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评测；③模型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>OpenFlamingo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①方法：提高图像在不同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>prompt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的迁移攻击能力（梯度优化图像最大化输出指定文本的概率，梯度优化文本最小化输出指定文本的概率）；②数据集：图像来自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MS-COCO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，文本来自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VQA-v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（图像内容相关）和自己构造（图像内容无关）；③模型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>OpenFlamingo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BLIP-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>InstructBLIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；④评测标准：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>attack success rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Hijacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①方法：通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Behaviour Matching</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>specific string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>leak context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>jailbreak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>disinformation attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的输出文本；方法仍然是最大化输出指定文本的概率；②数据集：总体没有提及图像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文本；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>specific string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Alpaca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构建；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>jailbreak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AdvBench</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构建；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Baseline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GCG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；③模型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LLaVA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>InstructBLIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BLIP-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/euanong/image-hijacks/tree/master</t>
+  </si>
+  <si>
+    <t>Think on Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/IDEA-FinAI/ToG/tree/main</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①方法：让大模型在知识图谱沿关系进行搜索，包括两段式的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>prune</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。②数据集：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CWQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>WebQSP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GrailQA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>QALD10-en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Simple Questions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>WebQuestions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T-Rex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Zero-Shot RE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Creak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；③模型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ChatGPT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GPT-3.5-turbo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GPT-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GPT-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Llama-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visual Adversarial Examples Jailbreak Aligned LLMs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法：最大化输出指定有害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串的概率，然后通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PGD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反向传播优化整张图像。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MiniGPT-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>InstructBLIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">LLaVA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>③</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图像来源没有说，有使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RealToxicityPrompts benchmark</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Unispac/Visual-Adversarial-Examples-Jailbreak-Large-Language-Models</t>
+  </si>
+  <si>
+    <t>Adversarial Robustness for Visual Grounding of MLLMs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>①方法：在物品定位任务上，提出了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>untargeted attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（在给定的扰动大小下，使得图像嵌入尽量偏离原始嵌入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尽量不输出正确定位）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>targeted attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（输出指定目标框和输出下一个目标框）；②数据集：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RefCOCO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RefCOCO+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RefCOCOg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；③模型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MiniGPT-v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；④衡量标准：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IoU@0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/KuofengGao/MLLM-Grounding-Robustness</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>①方法：图像</t>
     </r>
     <r>
@@ -2023,7 +3785,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>图像相似（用扩散模型将目标文本转成图像，然后拉进原图像和生成图像）、基于访问（使用</t>
+      <t>图像相似（用扩散模型将目标文本转成图像，然后拉进原图像和生成图像的距离）、基于访问（使用</t>
     </r>
     <r>
       <rPr>
@@ -2156,7 +3918,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>作为将文本转为图像的模型，代理模型包括</t>
+      <t>作为将文生图的模型，代理模型包括</t>
     </r>
     <r>
       <rPr>
@@ -2309,1429 +4071,6 @@
         <charset val="134"/>
       </rPr>
       <t>；</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>①方法：图像嵌入攻击：使图像的嵌入尽可能偏离原图像嵌入从而让模型输出变化；图像描述攻击：最大化输出指定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>串的概率。（黑盒攻击使用了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SSA-CWA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）②数据集：在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>NIPS17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据集中随机采样</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张图像。③模型：图像嵌入攻击使用了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ViT-B/16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CLIP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BLIP-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>vision encoder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；图像描述攻击使用了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BLIP-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>InstructBLIP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MiniGPT-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。④评测标准：检验模型输出内容与图像是否一致。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>①方法：最大化输出前缀是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>toxic token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的概率，然后反向传播梯度优化图像。②实验：基于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>GPT-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LLaVa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LLaVa Adapter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>验证的，检验输出内容是否包含有害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/chs20/robustvlm</t>
-  </si>
-  <si>
-    <t>An Image is Worth 1000 Lies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/Haochen-Luo/CroPA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>①方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:untargeted attack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（最小化</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ground truth</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文本的概率）、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>targeted attack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（最大化目标文本的概率）；②数据集和评测标准：在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>image captioning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>任务上使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>COCO 2014</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Flickr30k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据集基于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CIDEr score</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>评测、在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>visual QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>任务上使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>OK-VQA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VizWiz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据集基于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VQA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正确率评测、针对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>targeted attack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>COCO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用成功率和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BLEU-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>评测；③模型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>OpenFlamingo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>①方法：提高图像在不同</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>prompt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的迁移攻击能力（梯度优化图像最大化输出指定文本的概率，梯度优化文本最小化输出指定文本的概率）；②数据集：图像来自</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MS-COCO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，文本来自</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VQA-v2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（图像内容相关）和自己构造（图像内容无关）；③模型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>OpenFlamingo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BLIP-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>InstructBLIP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；④评测标准：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>attack success rate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image Hijacks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>①方法：通过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Behaviour Matching</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>定义了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>specific string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>leak context</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>jailbreak</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>disinformation attack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的输出文本；方法仍然是最大化输出指定文本的概率；②数据集：总体没有提及图像</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文本；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>specific string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Alpaca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>构建；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>jailbreak</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>AdvBench</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>构建；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Baseline</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>GCG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；③模型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LLaVA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>InstructBLIP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BLIP-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/euanong/image-hijacks/tree/master</t>
-  </si>
-  <si>
-    <t>Think on Graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/IDEA-FinAI/ToG/tree/main</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>①方法：让大模型在知识图谱沿关系进行搜索，包括两段式的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>search</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>prune</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。②数据集：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CWQ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>WebQSP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>GrailQA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>QALD10-en</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Simple Questions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>WebQuestions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T-Rex</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Zero-Shot RE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Creak</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；③模型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ChatGPT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>GPT-3.5-turbo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>GPT-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>GPT-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Llama-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3740,7 +4079,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3829,6 +4168,19 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Cambria Math"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3851,7 +4203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3910,6 +4262,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4199,15 +4557,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="120.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="70.77734375" customWidth="1"/>
-    <col min="4" max="4" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="120.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="70.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001">
+    <row r="1" spans="1:5" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4327,15 +4685,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="120.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="70.77734375" customWidth="1"/>
-    <col min="4" max="4" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="120.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="70.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001">
+    <row r="1" spans="1:5" ht="19">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4400,18 +4758,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543A151D-DD2D-9D4C-BC71-A819B18BA47F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="120.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="4" width="70.77734375" customWidth="1"/>
+    <col min="1" max="1" width="120.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="4" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="19">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4427,16 +4785,16 @@
     </row>
     <row r="2" spans="1:4" ht="60" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="10">
         <v>2024</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4453,15 +4811,15 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="120.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="70.77734375" customWidth="1"/>
-    <col min="4" max="4" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="120.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="70.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001">
+    <row r="1" spans="1:5" ht="19">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4516,15 +4874,15 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="120.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="70.77734375" customWidth="1"/>
-    <col min="4" max="4" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="120.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="70.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001">
+    <row r="1" spans="1:5" ht="19">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4667,15 +5025,15 @@
       <selection activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="120.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="70.77734375" customWidth="1"/>
-    <col min="4" max="4" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="120.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="70.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001">
+    <row r="1" spans="1:5" ht="19">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4724,20 +5082,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B897D0E8-9FF3-4F5D-9279-EF7F7091E824}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="51" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="120.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="4" width="70.77734375" customWidth="1"/>
+    <col min="1" max="1" width="120.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="100.83203125" customWidth="1"/>
+    <col min="4" max="4" width="80.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="19">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4751,7 +5110,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" customHeight="1">
+    <row r="2" spans="1:4" ht="80" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>60</v>
       </c>
@@ -4765,7 +5124,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" customHeight="1">
+    <row r="3" spans="1:4" ht="80" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>63</v>
       </c>
@@ -4773,13 +5132,13 @@
         <v>2023</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" customHeight="1">
+    <row r="4" spans="1:4" ht="80" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>66</v>
       </c>
@@ -4787,13 +5146,13 @@
         <v>2023</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" customHeight="1">
+    <row r="5" spans="1:4" ht="80" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>67</v>
       </c>
@@ -4801,13 +5160,13 @@
         <v>2023</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" customHeight="1">
+    <row r="6" spans="1:4" ht="80" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>69</v>
       </c>
@@ -4815,38 +5174,66 @@
         <v>2023</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="80" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="80" customHeight="1">
+      <c r="A8" s="13" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1">
-      <c r="A8" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="B8" s="10">
         <v>2024</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="80" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>81</v>
+    </row>
+    <row r="10" spans="1:4" ht="80" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/论文学习.xlsx
+++ b/论文学习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengbin/Desktop/LLM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42000CC5-6454-E74C-9CA9-F0969D11FDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C1F3F0-2AA0-F54E-BED2-0A1C9233C701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19300" yWindow="660" windowWidth="18960" windowHeight="19080" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2634,6 +2634,1291 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Image Hijacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①方法：通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Behaviour Matching</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>specific string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>leak context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>jailbreak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>disinformation attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的输出文本；方法仍然是最大化输出指定文本的概率；②数据集：总体没有提及图像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文本；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>specific string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Alpaca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构建；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>jailbreak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AdvBench</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构建；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Baseline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GCG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；③模型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LLaVA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>InstructBLIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BLIP-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/euanong/image-hijacks/tree/master</t>
+  </si>
+  <si>
+    <t>Think on Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/IDEA-FinAI/ToG/tree/main</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①方法：让大模型在知识图谱沿关系进行搜索，包括两段式的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>prune</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。②数据集：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CWQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>WebQSP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GrailQA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>QALD10-en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Simple Questions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>WebQuestions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T-Rex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Zero-Shot RE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Creak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；③模型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ChatGPT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GPT-3.5-turbo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GPT-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GPT-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Llama-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visual Adversarial Examples Jailbreak Aligned LLMs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法：最大化输出指定有害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串的概率，然后通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PGD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反向传播优化整张图像。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MiniGPT-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>InstructBLIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">LLaVA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>③</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图像来源没有说，有使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RealToxicityPrompts benchmark</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Unispac/Visual-Adversarial-Examples-Jailbreak-Large-Language-Models</t>
+  </si>
+  <si>
+    <t>Adversarial Robustness for Visual Grounding of MLLMs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>①方法：在物品定位任务上，提出了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>untargeted attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（在给定的扰动大小下，使得图像嵌入尽量偏离原始嵌入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尽量不输出正确定位）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>targeted attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（输出指定目标框和输出下一个目标框）；②数据集：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RefCOCO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RefCOCO+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RefCOCOg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；③模型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MiniGPT-v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；④衡量标准：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IoU@0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/KuofengGao/MLLM-Grounding-Robustness</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①方法：图像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图像相似（用扩散模型将目标文本转成图像，然后拉进原图像和生成图像的距离）、基于访问（使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>random gradient-free</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法计算伪梯度从而实现黑盒攻击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）②数据集：使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ImageNet-1K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的图像作为原始图像，使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MS-COCO captions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作为目标文本。③衡量标准：用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CLIP score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>衡量图像描述的准确性。④模型：图像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图像相似攻击中用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>stable difussion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作为将文生图的模型，代理模型包括</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BLIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CLIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BLIP-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ALBEF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；黑盒模型包括</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>UniDiffuser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Img2Prompt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LLaVA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MiniGPT-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -2671,7 +3956,26 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>的迁移攻击能力（梯度优化图像最大化输出指定文本的概率，梯度优化文本最小化输出指定文本的概率）；②数据集：图像来自</t>
+      <t>的迁移攻击能力（在多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>prompt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上梯度优化图像最大化输出指定文本的概率，梯度优化文本最小化输出指定文本的概率）；②数据集：图像来自</t>
     </r>
     <r>
       <rPr>
@@ -2776,1291 +4080,6 @@
         <family val="1"/>
       </rPr>
       <t>attack success rate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image Hijacks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>①方法：通过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Behaviour Matching</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>定义了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>specific string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>leak context</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>jailbreak</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>disinformation attack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的输出文本；方法仍然是最大化输出指定文本的概率；②数据集：总体没有提及图像</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文本；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>specific string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Alpaca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>构建；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>jailbreak</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>AdvBench</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>构建；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Baseline</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>GCG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；③模型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LLaVA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>InstructBLIP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BLIP-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/euanong/image-hijacks/tree/master</t>
-  </si>
-  <si>
-    <t>Think on Graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/IDEA-FinAI/ToG/tree/main</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>①方法：让大模型在知识图谱沿关系进行搜索，包括两段式的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>search</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>prune</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。②数据集：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CWQ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>WebQSP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>GrailQA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>QALD10-en</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Simple Questions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>WebQuestions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T-Rex</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Zero-Shot RE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Creak</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；③模型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ChatGPT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>GPT-3.5-turbo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>GPT-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>GPT-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Llama-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Visual Adversarial Examples Jailbreak Aligned LLMs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>①</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法：最大化输出指定有害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>串的概率，然后通过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>PGD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>反向传播优化整张图像。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="3"/>
-      </rPr>
-      <t>②</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MiniGPT-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>InstructBLIP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">LLaVA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="3"/>
-      </rPr>
-      <t>③</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图像来源没有说，有使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>RealToxicityPrompts benchmark</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/Unispac/Visual-Adversarial-Examples-Jailbreak-Large-Language-Models</t>
-  </si>
-  <si>
-    <t>Adversarial Robustness for Visual Grounding of MLLMs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>①方法：在物品定位任务上，提出了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>untargeted attack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（在给定的扰动大小下，使得图像嵌入尽量偏离原始嵌入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>尽量不输出正确定位）、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>targeted attack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（输出指定目标框和输出下一个目标框）；②数据集：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>RefCOCO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>RefCOCO+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>RefCOCOg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；③模型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MiniGPT-v2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；④衡量标准：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IoU@0.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/KuofengGao/MLLM-Grounding-Robustness</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>①方法：图像</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图像相似（用扩散模型将目标文本转成图像，然后拉进原图像和生成图像的距离）、基于访问（使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>random gradient-free</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法计算伪梯度从而实现黑盒攻击</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）②数据集：使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ImageNet-1K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的图像作为原始图像，使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MS-COCO captions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>作为目标文本。③衡量标准：用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CLIP score</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>衡量图像描述的准确性。④模型：图像</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图像相似攻击中用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>stable difussion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>作为将文生图的模型，代理模型包括</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BLIP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CLIP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BLIP-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ALBEF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；黑盒模型包括</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>UniDiffuser</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Img2Prompt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LLaVA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MiniGPT-4</t>
     </r>
     <r>
       <rPr>
@@ -4785,16 +4804,16 @@
     </row>
     <row r="2" spans="1:4" ht="60" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="10">
         <v>2024</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5084,8 +5103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B897D0E8-9FF3-4F5D-9279-EF7F7091E824}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="51" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5160,7 +5179,7 @@
         <v>2023</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>68</v>
@@ -5182,16 +5201,16 @@
     </row>
     <row r="7" spans="1:4" ht="80" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="10">
         <v>2023</v>
       </c>
       <c r="C7" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>85</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="80" customHeight="1">
@@ -5202,7 +5221,7 @@
         <v>2024</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>75</v>
@@ -5210,30 +5229,30 @@
     </row>
     <row r="9" spans="1:4" ht="80" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="10">
         <v>2024</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>79</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="80" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="10">
         <v>2024</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>88</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/论文学习.xlsx
+++ b/论文学习.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengbin/Desktop/LLM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C1F3F0-2AA0-F54E-BED2-0A1C9233C701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6E4871-F3F1-CD40-91F1-C07B7EBB86A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19300" yWindow="660" windowWidth="18960" windowHeight="19080" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19280" yWindow="660" windowWidth="18960" windowHeight="19080" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="对抗攻击" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="97">
   <si>
     <r>
       <rPr>
@@ -4090,6 +4090,164 @@
         <charset val="134"/>
       </rPr>
       <t>；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exploring the Transferability of Visual Prompting for MLLMs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>①方法：设计特征一致对齐损失来保证visual prompt来约束图像特征在原始特征附近，并且设计针对特定任务描述来增强特定任务的引导作用；②数据集：物体识别任务(CIFAR-10、ImageNette和SVHN)、物体计数任务(CLEVR)、多模态推理任务(Hatefulmemes)、幻觉任务(POPE)；③模型：训练(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MiniGPT-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>InstructBLIP)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、推理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(BLIP2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VPG-Trans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BLIVA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VisualGLM)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/zycheiheihei/transferable-visual-prompting</t>
+  </si>
+  <si>
+    <t>论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年份</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>总结</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4098,7 +4256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4200,6 +4358,28 @@
       <name val="Cambria Math"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4222,7 +4402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4288,6 +4468,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5101,10 +5290,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B897D0E8-9FF3-4F5D-9279-EF7F7091E824}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="37" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5115,17 +5304,17 @@
     <col min="4" max="4" width="80.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="15" t="s">
+    <row r="1" spans="1:4" ht="25" customHeight="1">
+      <c r="A1" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5253,6 +5442,20 @@
       </c>
       <c r="D10" s="20" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="80" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
